--- a/lota_xin/xls/gold.xlsx
+++ b/lota_xin/xls/gold.xlsx
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -41,7 +41,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "PlayerUpLv", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "PlayerUpLv"}</t>
         </r>
       </text>
     </comment>
@@ -54,7 +54,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "PlayerUpSkill", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "PlayerUpSkill"}</t>
         </r>
       </text>
     </comment>
@@ -67,7 +67,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "PetUpLv", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "PetUpLv"}</t>
         </r>
       </text>
     </comment>
@@ -80,7 +80,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "PetUpSkill", "size" : 32}</t>
+          <t xml:space="preserve">{"type":"int32", "name" : "PetUpSkill"}</t>
         </r>
       </text>
     </comment>
@@ -115,9 +115,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -128,32 +128,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,37 +143,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -211,17 +166,53 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,10 +234,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -258,6 +249,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -265,8 +264,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,91 +281,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -378,6 +300,72 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +389,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,13 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,37 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,26 +475,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,8 +523,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -541,23 +532,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +548,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,16 +592,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,115 +610,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>

--- a/lota_xin/xls/gold.xlsx
+++ b/lota_xin/xls/gold.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18855" windowHeight="8475"/>
+    <workbookView windowWidth="21495" windowHeight="8685"/>
   </bookViews>
   <sheets>
     <sheet name="goldTable(yes)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"int32", "name" : "ID"}</t>
+          <t xml:space="preserve">{"type":"uint32", "name" : "ID"}</t>
         </r>
       </text>
     </comment>
@@ -115,8 +115,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -125,6 +125,81 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,6 +226,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -160,14 +236,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,91 +259,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,7 +281,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -293,19 +311,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -317,37 +323,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,31 +341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -413,7 +383,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,13 +401,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,7 +413,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,13 +455,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +475,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -501,6 +495,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,38 +525,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,6 +548,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -580,10 +580,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -592,133 +592,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1047,7 +1047,7 @@
   <dimension ref="A1:E602"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
